--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159637.452801483</v>
+        <v>1157749.871285081</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>153.6723969401145</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>74.53436060286468</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>363.4484881087117</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.40868448976611</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>82.92375604299535</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.96985915739644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>180.2484107694636</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>144.5425776078363</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>109.7756561963045</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139879</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>169.8277167599789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.02510219382465</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603055</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>276.2330889766185</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>70.43533402631046</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.706717846737</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.06705067831024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002171</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>78.97366804880386</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.41695091576918</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>55.21598883571484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523555</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235376</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069496</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1159.40775858698</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1159.40775858698</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1159.40775858698</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>773.6195059887355</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>362.6336011991279</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1546.007598651101</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>129.230214752551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1576.102522773261</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1576.102522773261</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1217.836824166511</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>832.0485715682667</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>421.0626667786591</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,40 +4577,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1576.102522773261</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1576.102522773261</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468206</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468206</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468206</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>737.5416843872215</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2496.117797904436</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2165.054910560866</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>1812.286255290752</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>439.6809052858516</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>439.6809052858516</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>439.6809052858516</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>439.6809052858516</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>439.6809052858516</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,10 +5042,10 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028587</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286131</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305957</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,19 +5303,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028587</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305952</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305952</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5650,37 +5650,37 @@
         <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1219.892948359297</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>965.2084601534104</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>675.7912901164499</v>
+        <v>714.9354044297404</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184324</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>898.792518248838</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>644.108030042951</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>354.6908600059904</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>354.6908600059904</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,7 +5981,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,19 +5999,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6218,16 +6218,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201019</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609665</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550797</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201017</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201018</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.691574757298</v>
+        <v>439.5324299542197</v>
       </c>
       <c r="C31" t="n">
-        <v>470.516257110762</v>
+        <v>359.761048086741</v>
       </c>
       <c r="D31" t="n">
-        <v>376.1604829797972</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="E31" t="n">
-        <v>284.008254678775</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557759</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933509</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667518</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962061</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899272</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970149</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465078</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540562</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784972</v>
+        <v>902.6804289818942</v>
       </c>
       <c r="X31" t="n">
-        <v>874.610888168326</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061668</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,13 +6698,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,16 +7093,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,31 +7397,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
@@ -7831,10 +7831,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.751552729297</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>403.7628319612151</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>308.1251096272028</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968301999</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539326</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.75693659211589</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.8068779881127</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.51615797628548</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>10.00426342195888</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>216.0876643102806</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.43092547709102</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.5176026737846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338612</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>30.90698584635101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.06989642126683</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>71.80084047860484</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972279.0722882503</v>
+        <v>972279.0722882502</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>972279.0722882502</v>
+        <v>972279.0722882503</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>972279.0722882502</v>
+        <v>972279.0722882503</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>972279.0722882503</v>
+        <v>972279.0722882502</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1010972.112426776</v>
+        <v>1010972.112426775</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.9291787486</v>
-      </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="F2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="G2" t="n">
         <v>410580.5127245943</v>
@@ -26350,10 +26350,10 @@
         <v>431046.9291787486</v>
       </c>
       <c r="O2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="P2" t="n">
         <v>431046.9291787486</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.171927646024903e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26433,7 +26433,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563561</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275954</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37464.45686275954</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,10 +26482,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398554.9863504277</v>
+        <v>-398554.986350428</v>
       </c>
       <c r="C6" t="n">
         <v>191412.8928641166</v>
       </c>
       <c r="D6" t="n">
-        <v>191412.8928641165</v>
+        <v>191412.8928641167</v>
       </c>
       <c r="E6" t="n">
-        <v>-221612.5193224577</v>
+        <v>-221709.9784484298</v>
       </c>
       <c r="F6" t="n">
-        <v>303547.5171544385</v>
+        <v>303450.0580284665</v>
       </c>
       <c r="G6" t="n">
-        <v>303547.5171544387</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="H6" t="n">
-        <v>303547.5171544386</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="I6" t="n">
-        <v>303547.5171544385</v>
+        <v>303450.0580284665</v>
       </c>
       <c r="J6" t="n">
-        <v>127124.2979618457</v>
+        <v>127026.8388358735</v>
       </c>
       <c r="K6" t="n">
-        <v>253162.1382438291</v>
+        <v>253143.6445058948</v>
       </c>
       <c r="L6" t="n">
-        <v>285524.4596950969</v>
+        <v>285524.4596950968</v>
       </c>
       <c r="M6" t="n">
         <v>161066.3512621264</v>
@@ -26558,10 +26558,10 @@
         <v>295867.3664959637</v>
       </c>
       <c r="O6" t="n">
-        <v>295867.3664959637</v>
+        <v>295867.3664959638</v>
       </c>
       <c r="P6" t="n">
-        <v>251704.7611931179</v>
+        <v>251704.761193118</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>260.1117730806805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>71.89960204370449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>50.33568191208332</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>28.06971808504558</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.6147941946983</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201.6819593027982</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>106.681589900453</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>102.3698827537144</v>
+        <v>83.12091415361547</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,7 +36057,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412267</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.4289566004319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>736.957405359228</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>618.5494866776692</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680942</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854573</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
